--- a/resources/testData/testdata.xlsx
+++ b/resources/testData/testdata.xlsx
@@ -78,25 +78,25 @@
     <t>Cypress.docx</t>
   </si>
   <si>
-    <t>Sanity21</t>
-  </si>
-  <si>
     <t>Test21</t>
   </si>
   <si>
-    <t>Sanity22</t>
-  </si>
-  <si>
     <t>Test22</t>
   </si>
   <si>
-    <t>Sanity21.Test21@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanity22.Test22@gmail.com</t>
-  </si>
-  <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>Sanity23</t>
+  </si>
+  <si>
+    <t>Sanity24</t>
+  </si>
+  <si>
+    <t>Sanity23.Test23@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanity24.Test24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,25 +509,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>0</v>
@@ -541,16 +541,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>

--- a/resources/testData/testdata.xlsx
+++ b/resources/testData/testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>10:45 AM</t>
   </si>
@@ -78,25 +78,22 @@
     <t>Cypress.docx</t>
   </si>
   <si>
-    <t>Test21</t>
-  </si>
-  <si>
-    <t>Test22</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Sanity23</t>
-  </si>
-  <si>
-    <t>Sanity24</t>
-  </si>
-  <si>
-    <t>Sanity23.Test23@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanity24.Test24@gmail.com</t>
+    <t>Sanity31</t>
+  </si>
+  <si>
+    <t>Sanity32</t>
+  </si>
+  <si>
+    <t>Test31</t>
+  </si>
+  <si>
+    <t>Test32</t>
+  </si>
+  <si>
+    <t>Sanity31.Test31@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanity32.Test32@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -459,7 +456,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+      <selection activeCell="G3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,25 +506,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>0</v>
@@ -541,16 +538,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>

--- a/resources/testData/testdata.xlsx
+++ b/resources/testData/testdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>10:45 AM</t>
   </si>
@@ -60,40 +60,82 @@
     <t>0123456790</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>img</t>
   </si>
   <si>
-    <t>Serverless.png</t>
-  </si>
-  <si>
     <t>0123456791</t>
   </si>
   <si>
     <t>doc</t>
   </si>
   <si>
-    <t>Cypress.docx</t>
-  </si>
-  <si>
-    <t>Sanity31</t>
-  </si>
-  <si>
-    <t>Sanity32</t>
-  </si>
-  <si>
-    <t>Test31</t>
-  </si>
-  <si>
-    <t>Test32</t>
-  </si>
-  <si>
-    <t>Sanity31.Test31@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanity32.Test32@gmail.com</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>11:15 AM</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Cypress.doc</t>
+  </si>
+  <si>
+    <t>report.png</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0123456788</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Sanity69</t>
+  </si>
+  <si>
+    <t>Test69</t>
+  </si>
+  <si>
+    <t>Sanity70</t>
+  </si>
+  <si>
+    <t>Test70</t>
+  </si>
+  <si>
+    <t>Sanity71</t>
+  </si>
+  <si>
+    <t>Test71</t>
+  </si>
+  <si>
+    <t>Sanity72</t>
+  </si>
+  <si>
+    <t>Test72</t>
+  </si>
+  <si>
+    <t>Sanity69.Test69@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanity70.Test70@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanity71.Test71@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanity72.Test72@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -453,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:XFD1048576"/>
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,66 +548,130 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
